--- a/Table/Z 职业配置表.xlsx
+++ b/Table/Z 职业配置表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\trunk\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3841075-43F9-46A6-8EA5-81FE4226FE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +41,38 @@
   </si>
   <si>
     <t>模型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +86,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -66,7 +119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,14 +138,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -101,6 +160,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,62 +457,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane xSplit="11" ySplit="21" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>1001</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -454,12 +545,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
